--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1463716.449344789</v>
+        <v>-1464529.896556677</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954292</v>
+        <v>2927877.345954291</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842872</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>289.117288741969</v>
+        <v>265.8091202298061</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F11" t="n">
         <v>321.0125464443796</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H11" t="n">
-        <v>215.828665010048</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241314</v>
+        <v>61.32070768241306</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>84.08218037545163</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U11" t="n">
-        <v>163.296248452629</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>269.9124485024232</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351698</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313686</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>145.5577298436981</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.7226826589843</v>
+        <v>92.72268265898421</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438478</v>
+        <v>78.92267750438469</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.54404190196308</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774262</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592893</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366596</v>
+        <v>66.63306124366586</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227662</v>
+        <v>46.49600542227653</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271701</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>118.363767619385</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706117</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141333</v>
+        <v>195.3080224141332</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586099</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W13" t="n">
-        <v>12.93455657545778</v>
+        <v>122.0037924298854</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250263</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.817674881094</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.1059717842871</v>
+        <v>301.105971784287</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419689</v>
+        <v>289.1172887419688</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.0985927864967</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443796</v>
+        <v>291.6768842125935</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922378</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577618</v>
+        <v>234.9781829577616</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241304</v>
+        <v>61.32070768241296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545161</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526289</v>
+        <v>163.2962484526288</v>
       </c>
       <c r="V14" t="n">
-        <v>88.88606151148709</v>
+        <v>244.6123490244661</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351698</v>
+        <v>289.2127067351697</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313685</v>
+        <v>300.6093045313684</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.7226826589842</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.896994650049702</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196307</v>
+        <v>62.54404190196298</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592883</v>
+        <v>61.95871608592874</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033072</v>
+        <v>77.99174215033064</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366585</v>
+        <v>66.63306124366576</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227652</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271693</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>118.3637676193849</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706116</v>
+        <v>140.8174128706115</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141332</v>
+        <v>195.3080224141331</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586098</v>
+        <v>169.1308190586097</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2977051292231</v>
+        <v>194.2977051292229</v>
       </c>
       <c r="X16" t="n">
-        <v>89.27601866219085</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.8176748810938</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011073</v>
+        <v>7.152388864011044</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283892</v>
+        <v>53.82993817283889</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118837</v>
+        <v>86.36645694118835</v>
       </c>
       <c r="V17" t="n">
         <v>167.6825575130257</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869173</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754366</v>
+        <v>15.79289114754363</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944139</v>
+        <v>1.99288599294411</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890176</v>
+        <v>1.061950638890148</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.395928854602</v>
+        <v>41.43397610794438</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917109</v>
+        <v>63.88762135917106</v>
       </c>
       <c r="U19" t="n">
         <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716925</v>
+        <v>248.1629802938272</v>
       </c>
       <c r="W19" t="n">
         <v>117.3679136177825</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358562</v>
+        <v>63.01301561358559</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965331</v>
+        <v>53.88788336965328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4772461807971</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864010964</v>
+        <v>7.152388864011044</v>
       </c>
       <c r="T20" t="n">
-        <v>53.8299381728388</v>
+        <v>53.82993817283889</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118826</v>
+        <v>86.36645694118835</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X20" t="n">
-        <v>212.28291522373</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="21">
@@ -2223,7 +2223,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>195.9378182409837</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754354</v>
+        <v>15.79289114754363</v>
       </c>
       <c r="C22" t="n">
-        <v>157.9548387396027</v>
+        <v>1.99288599294411</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890062</v>
+        <v>1.061950638890148</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.4339761079443</v>
+        <v>41.43397610794438</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917097</v>
+        <v>63.88762135917106</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20102754716913</v>
+        <v>92.20102754716922</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177824</v>
+        <v>255.415022860039</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358551</v>
+        <v>63.01301561358559</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.8878833696532</v>
+        <v>53.88788336965328</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1761802728465</v>
+        <v>224.1761802728466</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305282</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750562</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449617</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0827549329389</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G23" t="n">
         <v>245.4772461807972</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0483914463211</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864010987</v>
+        <v>7.152388864011073</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283884</v>
+        <v>53.82993817283892</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118829</v>
+        <v>86.36645694118837</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130256</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909825</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237291</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6795130199279</v>
+        <v>223.679513019928</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754357</v>
+        <v>15.79289114754366</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944053</v>
+        <v>1.992885992944139</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890091</v>
+        <v>1.061950638890176</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.37012655389059</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440138</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>95.67698268836644</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794432</v>
+        <v>41.43397610794441</v>
       </c>
       <c r="T25" t="n">
-        <v>63.887621359171</v>
+        <v>63.88762135917109</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026925</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20102754716916</v>
+        <v>92.20102754716925</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177824</v>
+        <v>273.3298663644401</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358554</v>
+        <v>63.01301561358562</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965322</v>
+        <v>53.88788336965331</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500859</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352245</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V26" t="n">
         <v>231.1103301070618</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698022</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455861</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626141</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487207</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531244</v>
       </c>
       <c r="S28" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U28" t="n">
         <v>181.8060034967287</v>
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500859</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352245</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V29" t="n">
         <v>231.1103301070618</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698022</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455861</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626141</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487207</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531244</v>
       </c>
       <c r="S31" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U31" t="n">
         <v>181.8060034967287</v>
@@ -3029,25 +3029,25 @@
         <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245645</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D32" t="n">
         <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.338711438998</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F32" t="n">
         <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
-        <v>308.9050187748334</v>
+        <v>308.9050187748333</v>
       </c>
       <c r="H32" t="n">
         <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500863</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.5801614580472</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T32" t="n">
-        <v>117.2577107668751</v>
+        <v>117.257710766875</v>
       </c>
       <c r="U32" t="n">
         <v>149.7942295352245</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157978</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698027</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455866</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033811</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852441</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292631</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626144</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I34" t="n">
-        <v>32.9939865048721</v>
+        <v>32.99398650487206</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531251</v>
+        <v>34.66075099531247</v>
       </c>
       <c r="S34" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U34" t="n">
         <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6288001412054</v>
+        <v>155.6288001412053</v>
       </c>
       <c r="W34" t="n">
         <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076218</v>
+        <v>126.4407882076217</v>
       </c>
       <c r="Y34" t="n">
         <v>117.3156559636894</v>
@@ -3266,22 +3266,22 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C35" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D35" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112965</v>
+        <v>20.49255674112974</v>
       </c>
       <c r="T35" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y35" t="n">
         <v>237.0196808970466</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466223</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C37" t="n">
-        <v>15.33305387006271</v>
+        <v>15.3330538700628</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600884</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343884</v>
+        <v>3.043437609343969</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>74.29098035119105</v>
+        <v>54.77414398506307</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628965</v>
+        <v>96.74462560241685</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X37" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070428</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677197</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C38" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D38" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F38" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G38" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H38" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.49255674112965</v>
+        <v>20.49255674112973</v>
       </c>
       <c r="T38" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V38" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W38" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X38" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y38" t="n">
         <v>237.0196808970466</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466223</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006271</v>
+        <v>15.3330538700628</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>33.91895488213679</v>
+        <v>14.40211851600884</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343884</v>
+        <v>3.043437609343969</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506298</v>
+        <v>54.77414398506307</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628965</v>
+        <v>77.22778923628974</v>
       </c>
       <c r="U40" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242878</v>
+        <v>125.058031790415</v>
       </c>
       <c r="W40" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X40" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070428</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677197</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>237.5163481499651</v>
       </c>
       <c r="C41" t="n">
-        <v>225.5276651076468</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
         <v>216.5089691521748</v>
       </c>
       <c r="E41" t="n">
-        <v>238.2511067220803</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F41" t="n">
-        <v>257.4229228100575</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G41" t="n">
-        <v>258.8174140579157</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H41" t="n">
-        <v>171.3885593234397</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112957</v>
+        <v>20.49255674112963</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995741</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830686</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V41" t="n">
         <v>181.0227253901442</v>
       </c>
       <c r="W41" t="n">
-        <v>206.3228248681011</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X41" t="n">
-        <v>225.6230831008477</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
         <v>237.0196808970465</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466215</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006263</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600866</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343798</v>
+        <v>3.043437609343855</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>74.29098035119183</v>
+        <v>54.77414398506296</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628957</v>
+        <v>96.74462560241797</v>
       </c>
       <c r="U43" t="n">
         <v>131.7183987798111</v>
       </c>
       <c r="V43" t="n">
-        <v>105.5411954242877</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W43" t="n">
-        <v>130.708081494901</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070411</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.2280512467718</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C44" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D44" t="n">
         <v>216.5089691521749</v>
       </c>
       <c r="E44" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F44" t="n">
         <v>257.4229228100576</v>
       </c>
       <c r="G44" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H44" t="n">
         <v>171.3885593234398</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112965</v>
+        <v>20.4925567411297</v>
       </c>
       <c r="T44" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995755</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830701</v>
       </c>
       <c r="V44" t="n">
         <v>181.0227253901443</v>
@@ -4040,7 +4040,7 @@
         <v>206.3228248681012</v>
       </c>
       <c r="X44" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y44" t="n">
         <v>237.0196808970466</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.13305902466223</v>
+        <v>29.13305902466229</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006271</v>
+        <v>15.33305387006277</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600881</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343884</v>
+        <v>3.043437609343941</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>19.51683636612732</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506298</v>
+        <v>54.77414398506304</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628965</v>
+        <v>77.22778923628971</v>
       </c>
       <c r="U46" t="n">
         <v>131.7183987798112</v>
       </c>
       <c r="V46" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W46" t="n">
         <v>130.7080814949011</v>
       </c>
       <c r="X46" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070425</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.74488761289993</v>
+        <v>67.22805124677194</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>946.8709425473273</v>
+        <v>1573.223586470754</v>
       </c>
       <c r="C11" t="n">
-        <v>654.833277151399</v>
+        <v>1304.729525632565</v>
       </c>
       <c r="D11" t="n">
-        <v>654.833277151399</v>
+        <v>1304.729525632565</v>
       </c>
       <c r="E11" t="n">
-        <v>654.833277151399</v>
+        <v>999.8398990099367</v>
       </c>
       <c r="F11" t="n">
-        <v>330.5781797328336</v>
+        <v>675.5848015913716</v>
       </c>
       <c r="G11" t="n">
-        <v>330.5781797328336</v>
+        <v>349.9211271547664</v>
       </c>
       <c r="H11" t="n">
-        <v>112.5694271974314</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="I11" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J11" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K11" t="n">
-        <v>475.8880155938954</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L11" t="n">
-        <v>719.2973161773724</v>
+        <v>790.6768958565435</v>
       </c>
       <c r="M11" t="n">
-        <v>1206.194903144587</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N11" t="n">
-        <v>1679.700173710448</v>
+        <v>1751.079753389619</v>
       </c>
       <c r="O11" t="n">
-        <v>2074.574784355414</v>
+        <v>2145.954364034585</v>
       </c>
       <c r="P11" t="n">
-        <v>2379.433668932841</v>
+        <v>2450.813248612012</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5066,25 +5066,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S11" t="n">
-        <v>2531.465921365857</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="T11" t="n">
-        <v>2531.465921365857</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U11" t="n">
-        <v>2366.520215858151</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="V11" t="n">
-        <v>2119.437035025357</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="W11" t="n">
-        <v>1846.798198154222</v>
+        <v>1876.869348623651</v>
       </c>
       <c r="X11" t="n">
-        <v>1554.66415094698</v>
+        <v>1876.869348623651</v>
       </c>
       <c r="Y11" t="n">
-        <v>1251.018388794082</v>
+        <v>1573.223586470754</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8133128779667</v>
+        <v>916.8133128779675</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189216</v>
+        <v>755.1096401189222</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091343</v>
       </c>
       <c r="E12" t="n">
         <v>469.2429931660049</v>
@@ -5115,25 +5115,25 @@
         <v>108.986232773886</v>
       </c>
       <c r="I12" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J12" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K12" t="n">
-        <v>306.5417023182948</v>
+        <v>326.203808759672</v>
       </c>
       <c r="L12" t="n">
-        <v>734.3290889342395</v>
+        <v>377.7365381371094</v>
       </c>
       <c r="M12" t="n">
-        <v>1291.673306585978</v>
+        <v>935.0807557888477</v>
       </c>
       <c r="N12" t="n">
-        <v>1877.163670256746</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O12" t="n">
-        <v>2337.264736621381</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P12" t="n">
         <v>2337.264736621381</v>
@@ -5151,13 +5151,13 @@
         <v>2154.858197092098</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V12" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X12" t="n">
         <v>1268.754082009649</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369.318461875801</v>
+        <v>307.7967791063982</v>
       </c>
       <c r="C13" t="n">
-        <v>289.5985856087457</v>
+        <v>228.0769028393429</v>
       </c>
       <c r="D13" t="n">
-        <v>289.5985856087457</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="E13" t="n">
-        <v>227.4856646413289</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="F13" t="n">
-        <v>164.9011029383703</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383703</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="H13" t="n">
-        <v>97.5949804700208</v>
+        <v>97.5949804700207</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413167</v>
+        <v>96.79005415413172</v>
       </c>
       <c r="K13" t="n">
-        <v>246.299051995864</v>
+        <v>246.2990519958641</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405359</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447744</v>
+        <v>714.1904553447746</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068809</v>
+        <v>957.3332466068812</v>
       </c>
       <c r="O13" t="n">
         <v>1177.722352077497</v>
@@ -5221,28 +5221,28 @@
         <v>1428.10685896269</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424592</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.89823519289</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.658424212474</v>
+        <v>1166.307686750572</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911264</v>
+        <v>969.0268560292259</v>
       </c>
       <c r="V13" t="n">
-        <v>749.5383823208134</v>
+        <v>798.187644858913</v>
       </c>
       <c r="W13" t="n">
-        <v>736.4731736587348</v>
+        <v>674.9514908893318</v>
       </c>
       <c r="X13" t="n">
-        <v>595.116802825375</v>
+        <v>533.5951200559721</v>
       </c>
       <c r="Y13" t="n">
-        <v>462.9777372889164</v>
+        <v>401.4560545195136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1291.877564405863</v>
+        <v>1219.509779418463</v>
       </c>
       <c r="C14" t="n">
-        <v>999.8398990099355</v>
+        <v>927.4721140225342</v>
       </c>
       <c r="D14" t="n">
-        <v>999.8398990099355</v>
+        <v>644.5442425210224</v>
       </c>
       <c r="E14" t="n">
-        <v>999.8398990099355</v>
+        <v>644.5442425210224</v>
       </c>
       <c r="F14" t="n">
-        <v>675.5848015913703</v>
+        <v>349.9211271547663</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547664</v>
+        <v>349.9211271547663</v>
       </c>
       <c r="H14" t="n">
-        <v>112.5694271974313</v>
+        <v>112.5694271974312</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731713</v>
@@ -5303,25 +5303,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.534426037118</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="T14" t="n">
-        <v>2446.534426037118</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="U14" t="n">
-        <v>2281.588720529412</v>
+        <v>2366.520215858151</v>
       </c>
       <c r="V14" t="n">
-        <v>2191.804820012758</v>
+        <v>2119.437035025357</v>
       </c>
       <c r="W14" t="n">
-        <v>2191.804820012758</v>
+        <v>2119.437035025357</v>
       </c>
       <c r="X14" t="n">
-        <v>1899.670772805516</v>
+        <v>1827.302987818115</v>
       </c>
       <c r="Y14" t="n">
-        <v>1596.025010652618</v>
+        <v>1523.657225665217</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J15" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K15" t="n">
-        <v>326.203808759672</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L15" t="n">
-        <v>377.7365381371089</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="M15" t="n">
-        <v>935.0807557888472</v>
+        <v>970.765100492938</v>
       </c>
       <c r="N15" t="n">
         <v>1520.571119459615</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>369.4410020678878</v>
+        <v>328.4319002777595</v>
       </c>
       <c r="C16" t="n">
-        <v>369.4410020678878</v>
+        <v>322.4753400251842</v>
       </c>
       <c r="D16" t="n">
-        <v>306.2652021669151</v>
+        <v>259.2995401242115</v>
       </c>
       <c r="E16" t="n">
-        <v>306.2652021669151</v>
+        <v>259.2995401242115</v>
       </c>
       <c r="F16" t="n">
-        <v>243.6806404639566</v>
+        <v>196.7149784212531</v>
       </c>
       <c r="G16" t="n">
-        <v>164.90110293837</v>
+        <v>117.9354408956664</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002069</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I16" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413175</v>
+        <v>96.79005415413184</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958641</v>
+        <v>246.2990519958643</v>
       </c>
       <c r="L16" t="n">
-        <v>470.584712840536</v>
+        <v>470.5847128405362</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447746</v>
+        <v>714.1904553447749</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068813</v>
+        <v>957.3332466068817</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077497</v>
+        <v>1177.722352077498</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016881</v>
+        <v>1357.735393016882</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.10685896269</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424592</v>
+        <v>1428.106858962691</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.89823519289</v>
+        <v>1308.547497730989</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.658424212475</v>
+        <v>1166.307686750573</v>
       </c>
       <c r="U16" t="n">
-        <v>920.3775934911279</v>
+        <v>969.0268560292268</v>
       </c>
       <c r="V16" t="n">
-        <v>749.5383823208149</v>
+        <v>798.1876448589139</v>
       </c>
       <c r="W16" t="n">
-        <v>553.2780741094784</v>
+        <v>601.9273366475776</v>
       </c>
       <c r="X16" t="n">
-        <v>463.1002774810032</v>
+        <v>460.5709658142179</v>
       </c>
       <c r="Y16" t="n">
-        <v>463.1002774810032</v>
+        <v>328.4319002777595</v>
       </c>
     </row>
     <row r="17">
@@ -5516,22 +5516,22 @@
         <v>167.8985774144699</v>
       </c>
       <c r="K17" t="n">
-        <v>439.2714293605865</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L17" t="n">
-        <v>871.3295686103874</v>
+        <v>907.9461548436963</v>
       </c>
       <c r="M17" t="n">
-        <v>1358.227155577602</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N17" t="n">
-        <v>1831.732426143463</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O17" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P17" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q17" t="n">
         <v>2531.465921365857</v>
@@ -5604,7 +5604,7 @@
         <v>1398.552487108883</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O18" t="n">
         <v>1980.672185824251</v>
@@ -5613,25 +5613,25 @@
         <v>2337.264736621381</v>
       </c>
       <c r="Q18" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R18" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T18" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X18" t="n">
         <v>1268.754082009649</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.71501199482654</v>
+        <v>53.71501199482648</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70199584033751</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70199584033751</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70199584033751</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033751</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="G19" t="n">
         <v>50.62931842731713</v>
@@ -5698,25 +5698,25 @@
         <v>782.9316911990691</v>
       </c>
       <c r="S19" t="n">
-        <v>583.5418640732084</v>
+        <v>741.0791900799334</v>
       </c>
       <c r="T19" t="n">
-        <v>519.0089132053589</v>
+        <v>676.5462392120838</v>
       </c>
       <c r="U19" t="n">
-        <v>399.4349425965785</v>
+        <v>556.9722686033034</v>
       </c>
       <c r="V19" t="n">
-        <v>306.3025915388317</v>
+        <v>306.3025915388315</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7491434400615</v>
+        <v>187.7491434400613</v>
       </c>
       <c r="X19" t="n">
-        <v>124.0996327192679</v>
+        <v>124.0996327192678</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.66742729537569</v>
+        <v>69.6674272953756</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.513793084492</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.18298780113</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121846</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021223</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961234</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2741582720859</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H20" t="n">
         <v>50.62931842731713</v>
@@ -5750,25 +5750,25 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J20" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K20" t="n">
-        <v>475.8880155938954</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L20" t="n">
-        <v>907.9461548436963</v>
+        <v>790.6768958565435</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144586</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710447</v>
+        <v>1751.079753389619</v>
       </c>
       <c r="O20" t="n">
-        <v>2074.574784355413</v>
+        <v>2145.954364034585</v>
       </c>
       <c r="P20" t="n">
-        <v>2379.433668932841</v>
+        <v>2450.813248612012</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.465921365857</v>
@@ -5789,7 +5789,7 @@
         <v>2213.252445112257</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X20" t="n">
         <v>1803.893281259012</v>
@@ -5835,13 +5835,13 @@
         <v>413.4208828411997</v>
       </c>
       <c r="L21" t="n">
-        <v>413.4208828411997</v>
+        <v>841.2082694571444</v>
       </c>
       <c r="M21" t="n">
-        <v>970.765100492938</v>
+        <v>935.0807557888477</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.571119459615</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O21" t="n">
         <v>1980.672185824251</v>
@@ -5850,25 +5850,25 @@
         <v>2337.264736621381</v>
       </c>
       <c r="Q21" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R21" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T21" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V21" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X21" t="n">
         <v>1268.754082009649</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.2523380015523</v>
+        <v>53.71501199482648</v>
       </c>
       <c r="C22" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="D22" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="E22" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="F22" t="n">
-        <v>51.7019958403374</v>
+        <v>51.70199584033748</v>
       </c>
       <c r="G22" t="n">
         <v>50.62931842731713</v>
@@ -5929,31 +5929,31 @@
         <v>782.9316911990691</v>
       </c>
       <c r="Q22" t="n">
-        <v>782.9316911990691</v>
+        <v>764.8358896794717</v>
       </c>
       <c r="R22" t="n">
-        <v>782.9316911990691</v>
+        <v>764.8358896794717</v>
       </c>
       <c r="S22" t="n">
-        <v>741.0791900799334</v>
+        <v>722.983388560336</v>
       </c>
       <c r="T22" t="n">
-        <v>676.5462392120839</v>
+        <v>658.4504376924865</v>
       </c>
       <c r="U22" t="n">
-        <v>556.9722686033036</v>
+        <v>538.8764670837061</v>
       </c>
       <c r="V22" t="n">
-        <v>463.839917545557</v>
+        <v>445.7441160259594</v>
       </c>
       <c r="W22" t="n">
-        <v>345.2864694467869</v>
+        <v>187.7491434400613</v>
       </c>
       <c r="X22" t="n">
-        <v>281.6369587259935</v>
+        <v>124.0996327192678</v>
       </c>
       <c r="Y22" t="n">
-        <v>227.2047533021013</v>
+        <v>69.6674272953756</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121859</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021233</v>
+        <v>704.7792099021224</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2309725961243</v>
+        <v>458.2309725961233</v>
       </c>
       <c r="G23" t="n">
-        <v>210.274158272086</v>
+        <v>210.2741582720861</v>
       </c>
       <c r="H23" t="n">
         <v>50.62931842731714</v>
@@ -5987,25 +5987,25 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J23" t="n">
-        <v>131.2819911811619</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K23" t="n">
-        <v>439.2714293605874</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L23" t="n">
-        <v>871.3295686103883</v>
+        <v>907.9461548436963</v>
       </c>
       <c r="M23" t="n">
-        <v>1358.227155577603</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N23" t="n">
-        <v>1831.732426143464</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O23" t="n">
-        <v>2226.607036788429</v>
+        <v>2263.223623021738</v>
       </c>
       <c r="P23" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.465921365857</v>
@@ -6014,7 +6014,7 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149685</v>
       </c>
       <c r="T23" t="n">
         <v>2469.867611227625</v>
@@ -6026,13 +6026,13 @@
         <v>2213.252445112257</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.954379218682</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>334.5491951158797</v>
       </c>
       <c r="G24" t="n">
-        <v>206.1118778881641</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H24" t="n">
         <v>108.986232773886</v>
@@ -6066,25 +6066,25 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J24" t="n">
-        <v>137.8463925088448</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K24" t="n">
-        <v>413.4208828411997</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="L24" t="n">
-        <v>841.2082694571444</v>
+        <v>478.4167050432619</v>
       </c>
       <c r="M24" t="n">
-        <v>1398.552487108883</v>
+        <v>1035.760922695</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.571119459616</v>
+        <v>1621.251286365768</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.672185824252</v>
+        <v>2081.352352730404</v>
       </c>
       <c r="P24" t="n">
-        <v>2337.264736621381</v>
+        <v>2437.944903527533</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.465921365857</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.51311962501887</v>
+        <v>53.71501199482655</v>
       </c>
       <c r="C25" t="n">
-        <v>94.50010347052994</v>
+        <v>51.70199584033752</v>
       </c>
       <c r="D25" t="n">
-        <v>94.50010347052994</v>
+        <v>51.70199584033752</v>
       </c>
       <c r="E25" t="n">
-        <v>94.50010347052994</v>
+        <v>51.70199584033752</v>
       </c>
       <c r="F25" t="n">
-        <v>94.50010347052994</v>
+        <v>51.70199584033752</v>
       </c>
       <c r="G25" t="n">
-        <v>93.42742605750965</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H25" t="n">
-        <v>93.42742605750965</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I25" t="n">
-        <v>93.42742605750965</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J25" t="n">
         <v>50.62931842731714</v>
@@ -6166,31 +6166,31 @@
         <v>782.9316911990691</v>
       </c>
       <c r="Q25" t="n">
-        <v>764.8358896794717</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="R25" t="n">
-        <v>668.1924728225359</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="S25" t="n">
-        <v>626.3399717034002</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T25" t="n">
-        <v>561.8070208355507</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U25" t="n">
-        <v>442.2330502267703</v>
+        <v>556.9722686033033</v>
       </c>
       <c r="V25" t="n">
-        <v>349.1006991690237</v>
+        <v>463.8399175455565</v>
       </c>
       <c r="W25" t="n">
-        <v>230.5472510702536</v>
+        <v>187.7491434400615</v>
       </c>
       <c r="X25" t="n">
-        <v>166.8977403494601</v>
+        <v>124.0996327192679</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.4655349255679</v>
+        <v>69.66742729537569</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476237</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027183</v>
+        <v>1525.118002027182</v>
       </c>
       <c r="D26" t="n">
         <v>1255.828533472544</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967885</v>
+        <v>964.5773097967881</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250966</v>
+        <v>653.9606153250961</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353659</v>
+        <v>341.9353438353655</v>
       </c>
       <c r="H26" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J26" t="n">
-        <v>187.336684694915</v>
+        <v>288.6637597322124</v>
       </c>
       <c r="K26" t="n">
-        <v>596.8002826177371</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.332581610935</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.704328321546</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N26" t="n">
-        <v>2293.683758630804</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.032529019166</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P26" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R26" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T26" t="n">
         <v>3306.281825613528</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052694</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166773</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X26" t="n">
-        <v>2384.033666982144</v>
+        <v>2384.033666982143</v>
       </c>
       <c r="Y26" t="n">
         <v>2094.026307776119</v>
@@ -6288,7 +6288,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F27" t="n">
         <v>353.8402176902251</v>
@@ -6300,7 +6300,7 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J27" t="n">
         <v>157.1374150831905</v>
@@ -6315,10 +6315,10 @@
         <v>1417.843509683229</v>
       </c>
       <c r="N27" t="n">
-        <v>1539.862142033961</v>
+        <v>1896.454692831091</v>
       </c>
       <c r="O27" t="n">
-        <v>1999.963208398597</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="P27" t="n">
         <v>2356.555759195726</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485933</v>
+        <v>435.0960012485934</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284112</v>
+        <v>369.0145279284114</v>
       </c>
       <c r="D28" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743118</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537681</v>
+        <v>271.0026129537683</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976829</v>
+        <v>222.0564541976831</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189695</v>
+        <v>156.9153196189698</v>
       </c>
       <c r="H28" t="n">
         <v>103.2476000974933</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4480754567084</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266712</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995736</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M28" t="n">
         <v>786.9494728320421</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.459262822379</v>
+        <v>1043.45926282238</v>
       </c>
       <c r="O28" t="n">
         <v>1277.215367021226</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R28" t="n">
         <v>1519.323011771655</v>
@@ -6412,22 +6412,22 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U28" t="n">
-        <v>1101.158217678811</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553709</v>
+        <v>943.9574094553705</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909076</v>
+        <v>761.3355041909073</v>
       </c>
       <c r="X28" t="n">
-        <v>633.617536304421</v>
+        <v>633.6175363044207</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148356</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1255.828533472545</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967895</v>
+        <v>964.5773097967897</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250975</v>
+        <v>653.9606153250977</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353669</v>
+        <v>341.9353438353671</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
@@ -6464,19 +6464,19 @@
         <v>288.6637597322124</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550345</v>
+        <v>698.1273576550346</v>
       </c>
       <c r="L29" t="n">
         <v>1231.659656648232</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.704328321547</v>
+        <v>1820.031403358843</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.683758630805</v>
+        <v>2395.010833668101</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019167</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P29" t="n">
         <v>3196.365573339991</v>
@@ -6500,7 +6500,7 @@
         <v>2921.529745166775</v>
       </c>
       <c r="W29" t="n">
-        <v>2662.529311242514</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X29" t="n">
         <v>2384.033666982144</v>
@@ -6543,19 +6543,19 @@
         <v>157.1374150831905</v>
       </c>
       <c r="K30" t="n">
-        <v>432.7119054155455</v>
+        <v>325.8327248926396</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4992920314902</v>
+        <v>753.6201115085844</v>
       </c>
       <c r="M30" t="n">
-        <v>954.371778363193</v>
+        <v>1310.964329160323</v>
       </c>
       <c r="N30" t="n">
-        <v>1539.862142033961</v>
+        <v>1896.454692831091</v>
       </c>
       <c r="O30" t="n">
-        <v>1999.963208398597</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="P30" t="n">
         <v>2356.555759195726</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485936</v>
+        <v>435.0960012485926</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284115</v>
+        <v>369.0145279284106</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743119</v>
+        <v>319.477130974311</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537684</v>
+        <v>271.0026129537675</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976832</v>
+        <v>222.0564541976823</v>
       </c>
       <c r="G31" t="n">
-        <v>156.9153196189698</v>
+        <v>156.9153196189689</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2476000974933</v>
+        <v>103.2476000974928</v>
       </c>
       <c r="I31" t="n">
         <v>69.92034100166293</v>
@@ -6622,16 +6622,16 @@
         <v>129.448075456708</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266707</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995732</v>
+        <v>529.976731599573</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320423</v>
+        <v>786.9494728320418</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O31" t="n">
         <v>1277.215367021226</v>
@@ -6649,22 +6649,22 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U31" t="n">
-        <v>1101.158217678811</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553709</v>
+        <v>943.9574094553703</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909077</v>
+        <v>761.3355041909072</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044212</v>
+        <v>633.6175363044206</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148357</v>
+        <v>515.1168737148348</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476237</v>
+        <v>1803.517264476238</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027182</v>
+        <v>1525.118002027183</v>
       </c>
       <c r="D32" t="n">
         <v>1255.828533472544</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967881</v>
+        <v>964.5773097967885</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250961</v>
+        <v>653.9606153250966</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353654</v>
+        <v>341.9353438353658</v>
       </c>
       <c r="H32" t="n">
-        <v>118.222046824904</v>
+        <v>118.2220468249039</v>
       </c>
       <c r="I32" t="n">
         <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322124</v>
+        <v>187.3366846949159</v>
       </c>
       <c r="K32" t="n">
-        <v>698.1273576550345</v>
+        <v>596.800282617738</v>
       </c>
       <c r="L32" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M32" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N32" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O32" t="n">
-        <v>2891.359604056463</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P32" t="n">
-        <v>3297.692648377287</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q32" t="n">
         <v>3449.871985516404</v>
@@ -6740,7 +6740,7 @@
         <v>2662.529311242512</v>
       </c>
       <c r="X32" t="n">
-        <v>2384.033666982143</v>
+        <v>2384.033666982144</v>
       </c>
       <c r="Y32" t="n">
         <v>2094.026307776119</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485936</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284114</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743118</v>
+        <v>319.4771309743116</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537682</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F34" t="n">
-        <v>222.056454197683</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G34" t="n">
         <v>156.9153196189695</v>
@@ -6856,16 +6856,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
-        <v>129.4480754567079</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266707</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L34" t="n">
-        <v>529.976731599573</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320419</v>
+        <v>786.9494728320421</v>
       </c>
       <c r="N34" t="n">
         <v>1043.459262822379</v>
@@ -6880,28 +6880,28 @@
         <v>1554.33387136288</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771656</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486827</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T34" t="n">
         <v>1284.800645453284</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.158217678811</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553709</v>
+        <v>943.9574094553706</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909076</v>
+        <v>761.3355041909074</v>
       </c>
       <c r="X34" t="n">
-        <v>633.617536304421</v>
+        <v>633.6175363044208</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148357</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6914,34 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018766</v>
+        <v>989.7116209018761</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442195</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F35" t="n">
-        <v>489.030782990626</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137825</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932083</v>
+        <v>479.737991893208</v>
       </c>
       <c r="L35" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430089</v>
       </c>
       <c r="M35" t="n">
         <v>1398.693718110223</v>
@@ -6956,16 +6956,16 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q35" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R35" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S35" t="n">
         <v>2703.265184067726</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U35" t="n">
         <v>2534.702829655338</v>
@@ -7011,28 +7011,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J36" t="n">
-        <v>141.6963688081575</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K36" t="n">
-        <v>417.2708591405124</v>
+        <v>148.0003125649521</v>
       </c>
       <c r="L36" t="n">
-        <v>845.0582457564572</v>
+        <v>575.7876991808969</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.402463408195</v>
+        <v>1133.131916832635</v>
       </c>
       <c r="N36" t="n">
-        <v>1524.421095758928</v>
+        <v>1718.622280503403</v>
       </c>
       <c r="O36" t="n">
-        <v>1984.522162123563</v>
+        <v>2178.723346868039</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.315897665168</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.58900179270599</v>
+        <v>87.58900179270626</v>
       </c>
       <c r="C37" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="D37" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="E37" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="F37" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000753</v>
+        <v>57.55347413000763</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K37" t="n">
         <v>115.881131553196</v>
@@ -7120,25 +7120,25 @@
         <v>786.7816674983818</v>
       </c>
       <c r="S37" t="n">
-        <v>711.7402732042494</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T37" t="n">
-        <v>633.7324052888054</v>
+        <v>633.7324052888061</v>
       </c>
       <c r="U37" t="n">
-        <v>500.6835176324304</v>
+        <v>500.6835176324312</v>
       </c>
       <c r="V37" t="n">
-        <v>394.0762495270892</v>
+        <v>394.0762495270898</v>
       </c>
       <c r="W37" t="n">
-        <v>262.0478843807245</v>
+        <v>262.047884380725</v>
       </c>
       <c r="X37" t="n">
-        <v>184.9234566123364</v>
+        <v>184.9234566123368</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.0163341408497</v>
+        <v>117.01633414085</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D38" t="n">
         <v>989.7116209018761</v>
@@ -7163,25 +7163,25 @@
         <v>489.0307829906255</v>
       </c>
       <c r="G38" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932083</v>
       </c>
       <c r="L38" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430095</v>
       </c>
       <c r="M38" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N38" t="n">
         <v>1872.198988676085</v>
@@ -7193,10 +7193,10 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S38" t="n">
         <v>2703.265184067726</v>
@@ -7211,7 +7211,7 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X38" t="n">
         <v>1915.542593939082</v>
@@ -7248,28 +7248,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J39" t="n">
-        <v>106.0120241040664</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K39" t="n">
-        <v>381.5865144364213</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="L39" t="n">
-        <v>381.5865144364213</v>
+        <v>569.4837554241022</v>
       </c>
       <c r="M39" t="n">
-        <v>938.9307320881596</v>
+        <v>1126.82797307584</v>
       </c>
       <c r="N39" t="n">
-        <v>1524.421095758928</v>
+        <v>1712.318336746609</v>
       </c>
       <c r="O39" t="n">
-        <v>1984.522162123563</v>
+        <v>2172.419403111244</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.114712920693</v>
+        <v>2529.011953908373</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.315897665168</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.302977920108</v>
+        <v>87.58900179270626</v>
       </c>
       <c r="C40" t="n">
-        <v>91.8150447180245</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="D40" t="n">
-        <v>91.8150447180245</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="E40" t="n">
-        <v>91.8150447180245</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="F40" t="n">
-        <v>91.8150447180245</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000753</v>
+        <v>57.55347413000763</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K40" t="n">
         <v>115.881131553196</v>
@@ -7357,25 +7357,25 @@
         <v>786.7816674983818</v>
       </c>
       <c r="S40" t="n">
-        <v>731.4542493316516</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T40" t="n">
-        <v>653.4463814162075</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U40" t="n">
-        <v>520.3974937598325</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V40" t="n">
-        <v>413.7902256544913</v>
+        <v>394.0762495270898</v>
       </c>
       <c r="W40" t="n">
-        <v>281.7618605081266</v>
+        <v>262.047884380725</v>
       </c>
       <c r="X40" t="n">
-        <v>204.6374327397385</v>
+        <v>184.9234566123368</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.7303102682517</v>
+        <v>117.01633414085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669374</v>
       </c>
       <c r="C41" t="n">
         <v>1208.407549338417</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018767</v>
+        <v>989.7116209018768</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442198</v>
+        <v>749.0539373442199</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906263</v>
+        <v>489.0307829906264</v>
       </c>
       <c r="G41" t="n">
-        <v>227.5990516189932</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
         <v>54.47929472662987</v>
@@ -7409,7 +7409,7 @@
         <v>54.47929472662987</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K41" t="n">
         <v>479.7379918932081</v>
@@ -7448,13 +7448,13 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X41" t="n">
         <v>1915.542593939082</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851157</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>54.47929472662987</v>
       </c>
       <c r="J42" t="n">
-        <v>54.47929472662987</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K42" t="n">
-        <v>330.0537850589848</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L42" t="n">
-        <v>757.8411716749295</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M42" t="n">
-        <v>1315.185389326668</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N42" t="n">
-        <v>1900.675752997436</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O42" t="n">
         <v>1984.522162123563</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.58900179270573</v>
+        <v>87.5890017927059</v>
       </c>
       <c r="C43" t="n">
-        <v>72.10106859062226</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="D43" t="n">
-        <v>72.10106859062226</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="E43" t="n">
-        <v>72.10106859062226</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="F43" t="n">
-        <v>72.10106859062226</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="G43" t="n">
-        <v>57.55347413000744</v>
+        <v>57.5534741300075</v>
       </c>
       <c r="H43" t="n">
         <v>54.47929472662987</v>
@@ -7594,25 +7594,25 @@
         <v>786.7816674983818</v>
       </c>
       <c r="S43" t="n">
-        <v>711.7402732042486</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T43" t="n">
-        <v>633.7324052888047</v>
+        <v>633.7324052888051</v>
       </c>
       <c r="U43" t="n">
-        <v>500.6835176324298</v>
+        <v>500.6835176324303</v>
       </c>
       <c r="V43" t="n">
-        <v>394.0762495270886</v>
+        <v>394.076249527089</v>
       </c>
       <c r="W43" t="n">
-        <v>262.047884380724</v>
+        <v>262.0478843807243</v>
       </c>
       <c r="X43" t="n">
-        <v>184.923456612336</v>
+        <v>184.9234566123363</v>
       </c>
       <c r="Y43" t="n">
-        <v>117.0163341408493</v>
+        <v>117.0163341408495</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018764</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442193</v>
+        <v>749.0539373442189</v>
       </c>
       <c r="F44" t="n">
-        <v>489.030782990626</v>
+        <v>489.0307829906258</v>
       </c>
       <c r="G44" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
-        <v>479.737991893208</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430089</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M44" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N44" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P44" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q44" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R44" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S44" t="n">
         <v>2703.265184067726</v>
@@ -7685,7 +7685,7 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X44" t="n">
         <v>1915.542593939082</v>
@@ -7722,22 +7722,22 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J45" t="n">
-        <v>141.6963688081575</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K45" t="n">
-        <v>417.2708591405124</v>
+        <v>330.0537850589848</v>
       </c>
       <c r="L45" t="n">
-        <v>841.6875808010568</v>
+        <v>757.8411716749295</v>
       </c>
       <c r="M45" t="n">
-        <v>1399.031798452795</v>
+        <v>1315.185389326668</v>
       </c>
       <c r="N45" t="n">
-        <v>1984.522162123563</v>
+        <v>1900.675752997436</v>
       </c>
       <c r="O45" t="n">
         <v>1984.522162123563</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270599</v>
+        <v>87.58900179270617</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000753</v>
+        <v>57.5534741300076</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K46" t="n">
         <v>115.881131553196</v>
@@ -7828,28 +7828,28 @@
         <v>786.7816674983818</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983818</v>
+        <v>767.0676913709805</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316516</v>
+        <v>711.7402732042501</v>
       </c>
       <c r="T46" t="n">
-        <v>653.4463814162075</v>
+        <v>633.7324052888059</v>
       </c>
       <c r="U46" t="n">
-        <v>520.3974937598325</v>
+        <v>500.6835176324309</v>
       </c>
       <c r="V46" t="n">
-        <v>413.7902256544913</v>
+        <v>394.0762495270897</v>
       </c>
       <c r="W46" t="n">
-        <v>281.7618605081266</v>
+        <v>262.0478843807248</v>
       </c>
       <c r="X46" t="n">
-        <v>204.6374327397385</v>
+        <v>184.9234566123367</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.0163341408497</v>
+        <v>117.0163341408499</v>
       </c>
     </row>
   </sheetData>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>352.4051964243494</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>203.9089023233596</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8769,10 +8769,10 @@
         <v>75.82029131472582</v>
       </c>
       <c r="K12" t="n">
-        <v>323.9440945392034</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>102.0372395626713</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>53.80710347724199</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,19 +9003,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>102.0372395626708</v>
+        <v>49.98397756525981</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>587.1002940162248</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9164,7 +9164,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>384.4025856017981</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9173,7 +9173,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>377.9966192443422</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>154.9918226869881</v>
+        <v>154.9918226869876</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>393.8132110494452</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>203.9089023233596</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9483,13 +9483,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>49.98397756525981</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>137.2633189153686</v>
       </c>
       <c r="N21" t="n">
-        <v>587.1002940162248</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.8391489829808</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9653,10 +9653,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>227.7839381316908</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472582</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356947</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>154.9918226869885</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>171.4033357675617</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9963,13 +9963,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>154.9918226869876</v>
+        <v>515.1863184416641</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>53.80710347724199</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10191,13 +10191,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>235.8460399113968</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>137.2633189153681</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10206,7 +10206,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>53.80710347724199</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236958</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472582</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>159.9124116577333</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>154.9918226869874</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339641</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406822</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10899,13 +10899,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>127.8735533121365</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356947</v>
       </c>
       <c r="L39" t="n">
-        <v>49.98397756525981</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>83.30528113975498</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11148,10 +11148,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869874</v>
       </c>
       <c r="O42" t="n">
-        <v>131.965805727922</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472582</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>478.687736818335</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11388,7 +11388,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>47.27246317627818</v>
+        <v>131.965805727922</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>23.30816851216281</v>
       </c>
       <c r="D11" t="n">
-        <v>280.098592786497</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922379</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>19.14951794771389</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545171</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842796</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196317</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.49179175774253</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.95871608592884</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033082</v>
+        <v>77.99174215033074</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.16276991271694</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>181.3631485537654</v>
+        <v>72.29391269933764</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864969</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564024</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>29.33566223178592</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.08218037545153</v>
       </c>
       <c r="T14" t="n">
         <v>130.7597296842794</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>155.7262875129792</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024232</v>
+        <v>269.912448502423</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>92.72268265898411</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438468</v>
+        <v>73.02568285433489</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774252</v>
+        <v>61.49179175774243</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>46.49600542227643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.16276991271683</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>50.6667884628353</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1104995.557171131</v>
+        <v>1104995.557171132</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1245126.156054673</v>
+        <v>1245126.156054672</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>248909.9052398738</v>
+        <v>248909.9052398739</v>
       </c>
       <c r="C2" t="n">
         <v>248909.9052398738</v>
@@ -26320,13 +26320,13 @@
         <v>248909.9052398739</v>
       </c>
       <c r="E2" t="n">
-        <v>217518.2093889239</v>
+        <v>217518.2093889244</v>
       </c>
       <c r="F2" t="n">
-        <v>217518.2093889242</v>
+        <v>217518.2093889243</v>
       </c>
       <c r="G2" t="n">
-        <v>249477.8196606094</v>
+        <v>249477.8196606092</v>
       </c>
       <c r="H2" t="n">
         <v>249477.8196606092</v>
@@ -26335,7 +26335,7 @@
         <v>249477.8196606092</v>
       </c>
       <c r="J2" t="n">
-        <v>249477.8196606087</v>
+        <v>249477.8196606088</v>
       </c>
       <c r="K2" t="n">
         <v>249477.8196606088</v>
@@ -26344,16 +26344,16 @@
         <v>249477.8196606087</v>
       </c>
       <c r="M2" t="n">
+        <v>249477.819660609</v>
+      </c>
+      <c r="N2" t="n">
         <v>249477.8196606089</v>
       </c>
-      <c r="N2" t="n">
-        <v>249477.8196606088</v>
-      </c>
       <c r="O2" t="n">
-        <v>249477.8196606095</v>
+        <v>249477.8196606087</v>
       </c>
       <c r="P2" t="n">
-        <v>249477.8196606088</v>
+        <v>249477.8196606089</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149714</v>
+        <v>367830.3395149715</v>
       </c>
       <c r="F3" t="n">
         <v>7.71771218361599e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915244</v>
+        <v>61543.83320915238</v>
       </c>
       <c r="H3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613903</v>
+        <v>83547.74167613924</v>
       </c>
       <c r="K3" t="n">
         <v>7.71771218361599e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.8332091524</v>
+        <v>61543.83320915238</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415066</v>
+        <v>149683.3109415064</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561251</v>
+        <v>20455.48779561268</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,10 +26427,10 @@
         <v>244219.7408414131</v>
       </c>
       <c r="F4" t="n">
-        <v>244219.7408414131</v>
+        <v>244219.7408414133</v>
       </c>
       <c r="G4" t="n">
-        <v>300146.301399525</v>
+        <v>300146.3013995251</v>
       </c>
       <c r="H4" t="n">
         <v>300146.3013995251</v>
@@ -26439,25 +26439,25 @@
         <v>300146.3013995251</v>
       </c>
       <c r="J4" t="n">
+        <v>298009.3859165158</v>
+      </c>
+      <c r="K4" t="n">
         <v>298009.3859165157</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>298009.3859165158</v>
-      </c>
-      <c r="L4" t="n">
-        <v>298009.3859165157</v>
       </c>
       <c r="M4" t="n">
         <v>296992.7137695695</v>
       </c>
       <c r="N4" t="n">
-        <v>296992.7137695696</v>
+        <v>296992.7137695695</v>
       </c>
       <c r="O4" t="n">
         <v>296992.7137695696</v>
       </c>
       <c r="P4" t="n">
-        <v>296992.7137695696</v>
+        <v>296992.7137695695</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26482,22 @@
         <v>48881.83299975545</v>
       </c>
       <c r="G5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="H5" t="n">
         <v>55349.24364233075</v>
       </c>
       <c r="I5" t="n">
-        <v>55349.24364233076</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="J5" t="n">
-        <v>64678.11138462553</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
         <v>64678.11138462555</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462554</v>
+        <v>64678.11138462555</v>
       </c>
       <c r="M5" t="n">
         <v>57153.73105654695</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181787.8521638422</v>
+        <v>-181792.2207363094</v>
       </c>
       <c r="C6" t="n">
-        <v>-181787.8521638423</v>
+        <v>-181792.2207363094</v>
       </c>
       <c r="D6" t="n">
-        <v>-181787.8521638422</v>
+        <v>-181792.2207363094</v>
       </c>
       <c r="E6" t="n">
-        <v>-443413.703967216</v>
+        <v>-443659.5471231518</v>
       </c>
       <c r="F6" t="n">
-        <v>-75583.36445224445</v>
+        <v>-75829.20760818051</v>
       </c>
       <c r="G6" t="n">
-        <v>-167561.5585903988</v>
+        <v>-167561.5585903991</v>
       </c>
       <c r="H6" t="n">
-        <v>-106017.7253812468</v>
+        <v>-106017.7253812467</v>
       </c>
       <c r="I6" t="n">
         <v>-106017.7253812467</v>
       </c>
       <c r="J6" t="n">
-        <v>-196757.4193166716</v>
+        <v>-196757.4193166718</v>
       </c>
       <c r="K6" t="n">
         <v>-113209.6776405326</v>
       </c>
       <c r="L6" t="n">
-        <v>-174753.510849685</v>
+        <v>-174753.5108496849</v>
       </c>
       <c r="M6" t="n">
-        <v>-254351.9361070142</v>
+        <v>-254351.9361070139</v>
       </c>
       <c r="N6" t="n">
-        <v>-104668.6251655078</v>
+        <v>-104668.6251655075</v>
       </c>
       <c r="O6" t="n">
-        <v>-125124.1129611196</v>
+        <v>-125124.1129611205</v>
       </c>
       <c r="P6" t="n">
-        <v>-104668.6251655078</v>
+        <v>-104668.6251655075</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I2" t="n">
         <v>165.9269238499924</v>
@@ -26713,19 +26713,19 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L2" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M2" t="n">
+        <v>152.5867559728737</v>
+      </c>
+      <c r="N2" t="n">
+        <v>152.5867559728737</v>
+      </c>
+      <c r="O2" t="n">
         <v>152.5867559728738</v>
       </c>
-      <c r="N2" t="n">
-        <v>152.5867559728738</v>
-      </c>
-      <c r="O2" t="n">
-        <v>152.5867559728739</v>
-      </c>
       <c r="P2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>632.8664803414641</v>
@@ -26811,7 +26811,7 @@
         <v>632.8664803414642</v>
       </c>
       <c r="J4" t="n">
-        <v>874.0042625207865</v>
+        <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
         <v>874.0042625207867</v>
@@ -26820,16 +26820,16 @@
         <v>874.0042625207867</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828735</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828735</v>
       </c>
       <c r="O4" t="n">
         <v>680.9911840828734</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828735</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F2" t="n">
         <v>9.647140229519987e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144054</v>
+        <v>76.92979151144048</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451555</v>
+        <v>25.56935974451574</v>
       </c>
       <c r="K2" t="n">
         <v>9.647140229519987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>76.9297915114405</v>
+        <v>76.92979151144047</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691767</v>
+        <v>50.08760471691743</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451564</v>
+        <v>25.56935974451585</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793222</v>
+        <v>241.1377821793225</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K2" t="n">
         <v>9.647140229519987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144054</v>
+        <v>76.92979151144048</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451555</v>
+        <v>25.56935974451574</v>
       </c>
       <c r="P2" t="n">
         <v>9.647140229519987e-14</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855172</v>
+        <v>88.99713233855181</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855182</v>
+        <v>88.99713233855191</v>
       </c>
     </row>
     <row r="17">
@@ -28770,7 +28770,7 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>9.964971103334761</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T19" t="n">
         <v>165.9269238499924</v>
@@ -28779,7 +28779,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9269238499924</v>
+        <v>9.964971103334449</v>
       </c>
       <c r="W19" t="n">
         <v>165.9269238499924</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I20" t="n">
         <v>150.3178400209649</v>
@@ -28849,25 +28849,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C22" t="n">
-        <v>9.964971103333767</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H22" t="n">
         <v>155.6301935822177</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440138</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9269238499925</v>
+        <v>27.87981460773582</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9269238499925</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="23">
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.91484350440138</v>
       </c>
       <c r="R25" t="n">
-        <v>41.4829195629023</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
         <v>165.9269238499924</v>
@@ -29256,7 +29256,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9269238499924</v>
+        <v>9.96497110333479</v>
       </c>
       <c r="X25" t="n">
         <v>165.9269238499924</v>
@@ -29296,13 +29296,13 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1485704102013159</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K26" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="L26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102021828</v>
       </c>
       <c r="M26" t="n">
         <v>102.4991512559563</v>
@@ -29542,7 +29542,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1485704102021828</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N29" t="n">
         <v>102.4991512559563</v>
@@ -29551,7 +29551,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="P29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102018417</v>
       </c>
       <c r="Q29" t="n">
         <v>102.4991512559563</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559562</v>
+        <v>0.1485704102022254</v>
       </c>
       <c r="K32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1485704102026375</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559574</v>
+        <v>102.4991512559569</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559562</v>
+        <v>102.4991512559563</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30034,25 +30034,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
@@ -30192,25 +30192,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
-        <v>133.0699196067457</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I38" t="n">
         <v>150.3178400209649</v>
@@ -30271,25 +30271,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>133.0699196067457</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I40" t="n">
         <v>135.4931377608283</v>
@@ -30429,25 +30429,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="W40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I41" t="n">
         <v>150.3178400209649</v>
@@ -30508,25 +30508,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,10 +30630,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I43" t="n">
         <v>135.4931377608283</v>
@@ -30666,25 +30666,25 @@
         <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
-        <v>133.0699196067449</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5867559728739</v>
+        <v>133.0699196067455</v>
       </c>
       <c r="U43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I44" t="n">
         <v>150.3178400209649</v>
@@ -30745,25 +30745,25 @@
         <v>55.88797492591271</v>
       </c>
       <c r="S44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I46" t="n">
         <v>135.4931377608283</v>
@@ -30900,28 +30900,28 @@
         <v>17.91484350440138</v>
       </c>
       <c r="R46" t="n">
-        <v>137.1599022512687</v>
+        <v>117.6430658851414</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X46" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.0699196067457</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
   </sheetData>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>311.1004426054803</v>
       </c>
       <c r="L11" t="n">
-        <v>245.8679803873505</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M11" t="n">
         <v>491.8157444113278</v>
@@ -35428,7 +35428,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.567931750521</v>
+        <v>81.46734621600444</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>258.497357465634</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L12" t="n">
-        <v>432.1084713292371</v>
+        <v>52.05326199741148</v>
       </c>
       <c r="M12" t="n">
         <v>562.9739572239781</v>
@@ -35504,7 +35504,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q12" t="n">
         <v>196.1628128732074</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466113</v>
+        <v>46.62700578466121</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391236</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703755</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M13" t="n">
-        <v>246.0664065699379</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N13" t="n">
-        <v>245.598779052633</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511273</v>
+        <v>222.6152580511274</v>
       </c>
       <c r="P13" t="n">
-        <v>181.8313544842261</v>
+        <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415035</v>
+        <v>71.08228883415043</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K15" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L15" t="n">
-        <v>52.05326199741102</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4044077482506</v>
+        <v>555.3596151178559</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834702</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466123</v>
+        <v>46.62700578466131</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391237</v>
+        <v>151.0191897391238</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703756</v>
+        <v>226.5511725703757</v>
       </c>
       <c r="M16" t="n">
-        <v>246.066406569938</v>
+        <v>246.0664065699381</v>
       </c>
       <c r="N16" t="n">
         <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511274</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P16" t="n">
-        <v>181.8313544842262</v>
+        <v>181.8313544842263</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415045</v>
+        <v>71.08228883415053</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>118.45379695672</v>
       </c>
       <c r="K17" t="n">
-        <v>274.1139918647642</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L17" t="n">
         <v>436.4223628785867</v>
@@ -35893,7 +35893,7 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N17" t="n">
-        <v>478.2881520867284</v>
+        <v>287.7337695954913</v>
       </c>
       <c r="O17" t="n">
         <v>398.8632430757227</v>
@@ -35902,7 +35902,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>123.2511437886192</v>
+        <v>123.2511437886187</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834702</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>311.1004426054803</v>
@@ -36127,7 +36127,7 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M20" t="n">
-        <v>301.2613619200907</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N20" t="n">
         <v>478.2881520867284</v>
@@ -36139,7 +36139,7 @@
         <v>307.938267249927</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.567931750521</v>
+        <v>81.46734621600444</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>278.3580710427827</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M21" t="n">
-        <v>562.9739572239781</v>
+        <v>94.82069326434674</v>
       </c>
       <c r="N21" t="n">
-        <v>555.3596151178559</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>81.46734621600481</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K23" t="n">
         <v>311.1004426054803</v>
@@ -36373,10 +36373,10 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P23" t="n">
-        <v>307.938267249927</v>
+        <v>117.3838847586903</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09805462780567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>432.1084713292371</v>
@@ -36446,7 +36446,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N24" t="n">
-        <v>123.2511437886197</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O24" t="n">
         <v>464.7485518834702</v>
@@ -36455,7 +36455,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.1628128732074</v>
+        <v>94.46567458416524</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>118.6023673669213</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5995938614365</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L26" t="n">
-        <v>538.921514134543</v>
+        <v>436.5709332887889</v>
       </c>
       <c r="M26" t="n">
         <v>594.3148956672841</v>
@@ -36616,7 +36616,7 @@
         <v>256.0670830064773</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004357</v>
+        <v>46.61117633004358</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>123.2511437886187</v>
+        <v>483.4456395432952</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P27" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>196.1628128732074</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206568</v>
+        <v>60.1290247020657</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36771,7 +36771,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K29" t="n">
-        <v>413.5995938614365</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L29" t="n">
         <v>538.921514134543</v>
       </c>
       <c r="M29" t="n">
-        <v>491.96431482153</v>
+        <v>594.3148956672841</v>
       </c>
       <c r="N29" t="n">
         <v>580.7873033426847</v>
@@ -36847,13 +36847,13 @@
         <v>501.3623943316791</v>
       </c>
       <c r="P29" t="n">
-        <v>410.4374185058833</v>
+        <v>308.0868376601288</v>
       </c>
       <c r="Q29" t="n">
         <v>256.0670830064773</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004357</v>
+        <v>46.61117633004358</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>88.09805462780567</v>
       </c>
       <c r="K30" t="n">
-        <v>278.3580710427827</v>
+        <v>170.3993028378274</v>
       </c>
       <c r="L30" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M30" t="n">
-        <v>94.82069326434627</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N30" t="n">
         <v>591.4044077482506</v>
@@ -36926,7 +36926,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P30" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>196.1628128732074</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206568</v>
+        <v>60.1290247020657</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565282</v>
@@ -37008,7 +37008,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126762</v>
+        <v>118.6023673669222</v>
       </c>
       <c r="K32" t="n">
         <v>413.5995938614365</v>
@@ -37078,19 +37078,19 @@
         <v>594.3148956672841</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7873033426846</v>
+        <v>580.7873033426847</v>
       </c>
       <c r="O32" t="n">
-        <v>501.362394331679</v>
+        <v>501.3623943316791</v>
       </c>
       <c r="P32" t="n">
-        <v>410.4374185058832</v>
+        <v>410.4374185058833</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.7165021607236</v>
+        <v>256.0670830064773</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004353</v>
+        <v>46.61117633004357</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206564</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565281</v>
+        <v>164.5212086565282</v>
       </c>
       <c r="L34" t="n">
         <v>240.0531914877801</v>
@@ -37242,10 +37242,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016317</v>
+        <v>195.3333734016313</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155486</v>
+        <v>84.5843077515549</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567199</v>
       </c>
       <c r="K35" t="n">
         <v>311.1004426054803</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>278.3580710427827</v>
+        <v>94.46567458416389</v>
       </c>
       <c r="L36" t="n">
         <v>432.1084713292371</v>
@@ -37394,7 +37394,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N36" t="n">
-        <v>123.2511437886185</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O36" t="n">
         <v>464.7485518834702</v>
@@ -37403,7 +37403,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M38" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N38" t="n">
         <v>478.2881520867284</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.05326199741067</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K39" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M39" t="n">
         <v>562.9739572239781</v>
@@ -37640,7 +37640,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.1628128732074</v>
+        <v>6.367619956358564</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>88.09805462780567</v>
       </c>
       <c r="K42" t="n">
         <v>278.3580710427827</v>
@@ -37868,10 +37868,10 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O42" t="n">
-        <v>84.69334255164379</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P42" t="n">
         <v>360.1944957546763</v>
@@ -38017,7 +38017,7 @@
         <v>118.45379695672</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L44" t="n">
         <v>436.4223628785867</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L45" t="n">
-        <v>428.7037592530752</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M45" t="n">
         <v>562.9739572239781</v>
@@ -38108,7 +38108,7 @@
         <v>591.4044077482506</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>84.69334255164379</v>
       </c>
       <c r="P45" t="n">
         <v>360.1944957546763</v>
